--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_39.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2429422.996214978</v>
+        <v>2477604.697003506</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17338441.47276634</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484439</v>
+        <v>278692.072591686</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5222922.317182332</v>
+        <v>5296754.732488744</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.03324702596115912</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>61.81553654602706</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -789,7 +789,7 @@
         <v>62.82088317610075</v>
       </c>
       <c r="T3" t="n">
-        <v>128.8768572327043</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U3" t="n">
         <v>174.5731815300314</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>67.46538592382009</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -880,10 +880,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>152.355512532834</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>327.2879775827832</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>342.1000678496641</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -975,7 +975,7 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C6" t="n">
-        <v>105.3918965517242</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D6" t="n">
         <v>94.13938596491228</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>114.3486586083494</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>173.5591556145158</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>361.0423675600758</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>108.9321707225724</v>
       </c>
     </row>
     <row r="9">
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>124.2978721248575</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1421,7 +1421,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1430,7 +1430,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>113.1067293763207</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1540,13 +1540,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>60.94899222869584</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225723</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1585,7 +1585,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>134.3364041133028</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1673,7 +1673,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633437</v>
       </c>
     </row>
     <row r="15">
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225779</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225824</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2096,7 +2096,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112152</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2485,7 +2485,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>171.7931177684368</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2713,7 +2713,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2725,13 +2725,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>24.34318456170492</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2779,7 +2779,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>8.909245336631695</v>
       </c>
     </row>
     <row r="29">
@@ -2962,7 +2962,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>24.34318456170492</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3202,7 +3202,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>419.2974898580658</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C35" t="n">
-        <v>431.021963166418</v>
+        <v>433.7610480884099</v>
       </c>
       <c r="D35" t="n">
-        <v>428.811602055307</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E35" t="n">
-        <v>426.6979124712948</v>
+        <v>429.4369973932877</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8496703728914</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>394.6447681409758</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>283.499768089223</v>
+        <v>286.2388530112158</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313282</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.07627015600843</v>
+        <v>82.81535507800129</v>
       </c>
       <c r="T35" t="n">
-        <v>215.1274699336988</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U35" t="n">
-        <v>253.8909947341603</v>
+        <v>256.6300796561532</v>
       </c>
       <c r="V35" t="n">
-        <v>356.2516956435188</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>398.0678151210841</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>412.2119538644895</v>
+        <v>414.9510387864823</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.4641775413502</v>
+        <v>404.203262463343</v>
       </c>
     </row>
     <row r="36">
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>187.1613476098043</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>168.0970094796144</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>161.4801279484996</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>165.3213387897772</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>172.2008985758684</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>60.22426252229282</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>85.55329631630664</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>18.46455815968891</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>154.9098700929904</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>240.6815670353363</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>272.9095858174328</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>281.3468681262809</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>266.5670554475785</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1987521979287</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4063890570399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>419.2974898580658</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C38" t="n">
-        <v>431.021963166418</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>428.811602055307</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E38" t="n">
-        <v>426.6979124712948</v>
+        <v>429.4369973932877</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8496703728914</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>394.6447681409758</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>283.499768089223</v>
+        <v>286.2388530112158</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313282</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.07627015600843</v>
+        <v>82.81535507800129</v>
       </c>
       <c r="T38" t="n">
-        <v>215.1274699336988</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U38" t="n">
-        <v>253.8909947341603</v>
+        <v>256.6300796561532</v>
       </c>
       <c r="V38" t="n">
-        <v>356.2516956435188</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>398.0678151210841</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>412.2119538644899</v>
+        <v>414.9510387864823</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.4641775413502</v>
+        <v>404.203262463343</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>187.1613476098043</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>168.0970094796144</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>161.4801279484996</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>165.3213387897772</v>
+        <v>28.46824604904392</v>
       </c>
       <c r="F40" t="n">
-        <v>172.2008985758684</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>85.03426481107849</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.46455815968891</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>130.0998678042049</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>240.6815670353363</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>272.9095858174328</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>281.3468681262809</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>266.5670554475785</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1987521979287</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4063890570399</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>419.2974898580658</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C41" t="n">
-        <v>431.021963166418</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>428.811602055307</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E41" t="n">
-        <v>426.6979124712948</v>
+        <v>429.4369973932877</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8496703728914</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>106.9445974742205</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>283.499768089223</v>
+        <v>286.2388530112158</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313282</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>80.07627015600843</v>
+        <v>82.81535507799963</v>
       </c>
       <c r="T41" t="n">
-        <v>215.1274699336988</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U41" t="n">
-        <v>253.8909947341603</v>
+        <v>256.6300796561532</v>
       </c>
       <c r="V41" t="n">
-        <v>356.2516956435188</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>398.0678151210841</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>412.2119538644895</v>
+        <v>414.9510387864823</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.4641775413502</v>
+        <v>404.203262463343</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>187.1613476098043</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>168.0970094796144</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>161.4801279484996</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>165.3213387897772</v>
+        <v>24.40875262509081</v>
       </c>
       <c r="F43" t="n">
-        <v>172.2008985758684</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>61.83231912371824</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>135.7640676445363</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>85.03426481107849</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>18.46455815968891</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>154.9098700929904</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>240.6815670353363</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>272.9095858174328</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>281.3468681262809</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>266.5670554475785</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1987521979287</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>419.2974898580658</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C44" t="n">
-        <v>431.021963166418</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>428.811602055307</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E44" t="n">
-        <v>426.6979124712948</v>
+        <v>429.4369973932877</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8496703728914</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>187.0208676302281</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>283.499768089223</v>
+        <v>286.2388530112158</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313282</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507799963</v>
       </c>
       <c r="T44" t="n">
-        <v>215.1274699336988</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U44" t="n">
-        <v>253.8909947341603</v>
+        <v>256.6300796561532</v>
       </c>
       <c r="V44" t="n">
-        <v>356.2516956435188</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>398.0678151210841</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>412.2119538644895</v>
+        <v>414.9510387864823</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.4641775413502</v>
+        <v>404.203262463343</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>187.1613476098043</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>168.0970094796144</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>161.4801279484996</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>165.3213387897772</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>172.2008985758684</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>130.8000740437998</v>
+        <v>24.34318456170444</v>
       </c>
       <c r="H46" t="n">
-        <v>135.7640676445363</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>85.03426481107849</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>154.9098700929904</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>240.6815670353363</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>281.3468681262809</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>266.5670554475785</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1987521979287</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4063890570399</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>442.6066390714051</v>
+        <v>1348.201254839347</v>
       </c>
       <c r="C2" t="n">
-        <v>408.5045702952325</v>
+        <v>919.6195805766158</v>
       </c>
       <c r="D2" t="n">
-        <v>376.6351895100811</v>
+        <v>887.7501997914644</v>
       </c>
       <c r="E2" t="n">
-        <v>346.9008487087803</v>
+        <v>459.1685255287327</v>
       </c>
       <c r="F2" t="n">
-        <v>323.0738231583921</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4328,25 +4328,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
+        <v>874.0494664914149</v>
+      </c>
+      <c r="P2" t="n">
         <v>1107.976466382457</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1528.02936532736</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4361,19 +4361,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.149847225911</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.149847225911</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.334796677349</v>
+        <v>1437.146076848872</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.192333256659</v>
+        <v>1374.706140943794</v>
       </c>
       <c r="Y2" t="n">
-        <v>868.9062095563129</v>
+        <v>1370.460421283851</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,10 +4395,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4410,19 +4410,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>440.5302273853659</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C4" t="n">
-        <v>267.9685158685908</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D4" t="n">
-        <v>102.0905230701135</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
         <v>33.94366860160834</v>
@@ -4486,52 +4486,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>1181.483761245743</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>1292.259348259376</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1418.750429333523</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1131.794921203953</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>859.7685167902448</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X4" t="n">
-        <v>859.7685167902448</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="Y4" t="n">
-        <v>632.348846104353</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>846.680625966315</v>
+        <v>1382.086414623702</v>
       </c>
       <c r="C5" t="n">
-        <v>418.0989517035833</v>
+        <v>1347.98434584753</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>912.0745610219742</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>478.2998161802694</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>102.8181913809243</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>726.9189754257044</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>726.9189754257044</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>726.9189754257044</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>726.9189754257044</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>1351.019759470485</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1975.120543515264</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2159.002379407686</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>2158.187328859123</v>
       </c>
       <c r="X5" t="n">
-        <v>873.1855120707613</v>
+        <v>1812.631704768553</v>
       </c>
       <c r="Y5" t="n">
-        <v>868.9397924108188</v>
+        <v>1808.38598510861</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174123</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326471</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993479</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.0543847161471</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760927</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.94366860160834</v>
+        <v>593.0357356940435</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>420.4740241772685</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>254.5960313787911</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>254.5960313787911</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>254.5960313787911</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>254.5960313787911</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.0923358148019</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>325.1908411606128</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>743.4007229285738</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.201508179231</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2340.960139477228</v>
       </c>
       <c r="T7" t="n">
-        <v>1292.062614956869</v>
+        <v>2095.080693055683</v>
       </c>
       <c r="U7" t="n">
-        <v>1013.629614209975</v>
+        <v>1816.647692308788</v>
       </c>
       <c r="V7" t="n">
-        <v>726.6741060804052</v>
+        <v>1529.692184179218</v>
       </c>
       <c r="W7" t="n">
-        <v>454.6477016666967</v>
+        <v>1257.66577976551</v>
       </c>
       <c r="X7" t="n">
-        <v>209.2559470001092</v>
+        <v>1012.274025098922</v>
       </c>
       <c r="Y7" t="n">
-        <v>33.94366860160834</v>
+        <v>784.8543544130307</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>484.0636759001416</v>
+        <v>1267.502422415565</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>1233.400353639393</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>1201.530972854241</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>767.7562280125366</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>33.94366860160834</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>267.8706684926505</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1107.976466382457</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>1334.566480014244</v>
+        <v>2223.792002549091</v>
       </c>
       <c r="W8" t="n">
-        <v>1333.751429465681</v>
+        <v>1818.936547960124</v>
       </c>
       <c r="X8" t="n">
-        <v>914.6089660449919</v>
+        <v>1803.834488579839</v>
       </c>
       <c r="Y8" t="n">
-        <v>910.3632463850494</v>
+        <v>1693.801992900473</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1113.00182921349</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>940.4401176967148</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>120.5233537662982</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>538.7332355342593</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>958.7861344791625</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1181.483761245743</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1675.765608785789</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1675.765608785789</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1675.765608785789</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1675.765608785789</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1430.373854119202</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1304.820447932477</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2522.969308202876</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2084.8268353863</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.917050560744</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.142305719039</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>787.2748761282469</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8770447515108</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H11" t="n">
-        <v>96.74689019472689</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>96.33010082186689</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>531.5847882747847</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1365.935080232963</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2292.362648977991</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2292.362648977991</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N11" t="n">
-        <v>2292.362648977991</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>3272.542315548298</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>4100.852190381694</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4647.350976340288</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>4816.505041093345</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>4732.853167277181</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>4512.78594015022</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4253.563637467237</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3890.946687401063</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3776.69746580882</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.555002388131</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.268878687784</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.5018458131597</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.045384649802</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>400.9550957963552</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>306.8346811233089</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.4508427394705</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.0657530056544</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.33010082186689</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.3937739823245</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>446.9520989485368</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1101.658145574261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.397084206336</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.569862300676</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.114424749059</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1565.935781079661</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1389.599234079629</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.481716141628</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.158961874822</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.291526113702</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>723.8057468929228</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>946.8261378987979</v>
+        <v>1077.292364523333</v>
       </c>
       <c r="C13" t="n">
-        <v>774.2644263820231</v>
+        <v>904.7306530065579</v>
       </c>
       <c r="D13" t="n">
-        <v>608.3864335835458</v>
+        <v>738.8526602080806</v>
       </c>
       <c r="E13" t="n">
-        <v>438.6284298342831</v>
+        <v>569.0946564588178</v>
       </c>
       <c r="F13" t="n">
-        <v>261.9213757960392</v>
+        <v>392.387602420574</v>
       </c>
       <c r="G13" t="n">
-        <v>96.33010082186689</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H13" t="n">
-        <v>96.33010082186689</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>96.33010082186689</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>182.9097859865568</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>457.6682405576923</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>875.8781223256534</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.361989506566</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1777.620792664211</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.290041889992</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2544.796935860334</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2712.989710724667</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2712.989710724667</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2694.750541681982</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2448.871095260437</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.438094513542</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.482586383973</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.456181970264</v>
+        <v>1741.922408594799</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.064427303677</v>
+        <v>1496.530653928212</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.644756617785</v>
+        <v>1269.11098324232</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.969308202876</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.8268353863</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.917050560744</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.142305719039</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>787.2748761282469</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8770447515108</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H14" t="n">
-        <v>96.74689019472689</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.33010082186689</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>96.33010082186689</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>96.33010082186689</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>178.7378950840498</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1335.785730294601</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N14" t="n">
-        <v>2461.516713731048</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>3441.696380301354</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>4270.00625513475</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4816.505041093345</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>4816.505041093345</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>4732.853167277181</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4512.78594015022</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4253.563637467237</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>3890.946687401063</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3486.091232812097</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3066.948769391407</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2658.662645691061</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.5018458131597</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.045384649802</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>400.9550957963552</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>306.8346811233089</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.4508427394705</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.0657530056544</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.33010082186689</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.3937739823245</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>446.9520989485368</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1101.658145574261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.397084206336</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.569862300676</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.114424749059</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1565.935781079661</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1389.599234079629</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.481716141628</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.158961874822</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.291526113702</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>723.8057468929228</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>946.8261378987979</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>774.2644263820231</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>608.3864335835458</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>438.6284298342831</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>261.9213757960392</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>96.33010082186689</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>96.33010082186689</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>96.33010082186689</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>182.9097859865568</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>457.6682405576923</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>875.8781223256534</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.361989506566</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1777.620792664211</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.290041889992</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2544.796935860334</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2712.989710724667</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2712.989710724667</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2694.750541681982</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T16" t="n">
-        <v>2448.871095260437</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U16" t="n">
-        <v>2170.438094513542</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.482586383973</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.456181970264</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.064427303677</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.644756617785</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
         <v>391.8077842004234</v>
@@ -5650,13 +5650,13 @@
         <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
         <v>267.852115244952</v>
@@ -5674,10 +5674,10 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>881.8088617745663</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
         <v>1341.292728955479</v>
@@ -5707,7 +5707,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
         <v>1617.386921419177</v>
@@ -5732,16 +5732,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5750,16 +5750,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423627</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423627</v>
@@ -5789,7 +5789,7 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
@@ -5887,13 +5887,13 @@
         <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
         <v>267.852115244952</v>
@@ -5911,10 +5911,10 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.5989800066049</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
         <v>1341.292728955479</v>
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477109</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309358</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324585</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831958</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F25" t="n">
         <v>267.852115244952</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="26">
@@ -6233,7 +6233,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883913</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716163</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>473.3149733731391</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>303.5569696238763</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>126.8499155856325</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.99296709327</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407378</v>
+        <v>1200.575908084873</v>
       </c>
     </row>
     <row r="29">
@@ -6470,7 +6470,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883913</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>639.1929661716163</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.573296407378</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6689,37 +6689,37 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309358</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6862,7 +6862,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
         <v>1341.292728955479</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2511.083736995628</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C35" t="n">
-        <v>2075.708016625509</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1642.564984246411</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E35" t="n">
-        <v>1211.556991851163</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F35" t="n">
-        <v>786.4563147068284</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G35" t="n">
-        <v>387.8252357765494</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H35" t="n">
-        <v>101.4618336662232</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I35" t="n">
-        <v>101.4618336662232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>536.716521119141</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.066813077319</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.126779330178</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2718.103355948862</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2718.103355948862</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O35" t="n">
-        <v>3698.283022519169</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P35" t="n">
-        <v>4526.592897352564</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q35" t="n">
-        <v>5073.09168331116</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R35" t="n">
-        <v>5073.09168331116</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>4992.206561941454</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T35" t="n">
-        <v>4774.90608726095</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U35" t="n">
-        <v>4518.450537024424</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V35" t="n">
-        <v>4158.600339404707</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W35" t="n">
-        <v>3756.511637262198</v>
+        <v>3782.628205257731</v>
       </c>
       <c r="X35" t="n">
-        <v>3340.135926287966</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y35" t="n">
-        <v>2934.616555034078</v>
+        <v>2955.199618136695</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>607.633578657516</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.1771174941583</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D36" t="n">
-        <v>406.0868286407115</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E36" t="n">
-        <v>311.9664139676652</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F36" t="n">
-        <v>228.5825755838268</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G36" t="n">
-        <v>143.1974858500107</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>101.4618336662232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>127.5255068266808</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>452.0838317928931</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1647.528817050692</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1764.701595145032</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1701.246157593415</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.067513924017</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1394.730966923985</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>1195.613448985984</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>1010.290694719178</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>855.4232589580583</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>728.9374797372791</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>836.1321743895084</v>
+        <v>1039.174348374283</v>
       </c>
       <c r="C37" t="n">
-        <v>666.3372153191909</v>
+        <v>866.6126368575082</v>
       </c>
       <c r="D37" t="n">
-        <v>503.2259749671712</v>
+        <v>700.7346440590309</v>
       </c>
       <c r="E37" t="n">
-        <v>336.2347236643659</v>
+        <v>530.9766403097681</v>
       </c>
       <c r="F37" t="n">
-        <v>162.2944220725796</v>
+        <v>354.2695862715243</v>
       </c>
       <c r="G37" t="n">
-        <v>101.4618336662232</v>
+        <v>188.678311297352</v>
       </c>
       <c r="H37" t="n">
-        <v>101.4618336662232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>101.4618336662232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>190.753212903686</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>468.2233615475945</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>889.1449373883286</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1351.340498642015</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1796.310995872432</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2218.691939170987</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2568.910527214101</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2739.814996151207</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2721.163927303036</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2564.68931104749</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2321.576617072402</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2045.910368771965</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1761.721613088853</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1492.461961121602</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1249.836958901472</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y37" t="n">
-        <v>1025.184040662038</v>
+        <v>1230.99296709327</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2511.083736995628</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C38" t="n">
-        <v>2075.708016625509</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D38" t="n">
-        <v>1642.564984246411</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E38" t="n">
-        <v>1211.556991851164</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F38" t="n">
-        <v>786.4563147068288</v>
+        <v>793.2056155771591</v>
       </c>
       <c r="G38" t="n">
-        <v>387.8252357765494</v>
+        <v>391.807784200423</v>
       </c>
       <c r="H38" t="n">
-        <v>101.4618336662232</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I38" t="n">
-        <v>101.4618336662232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>536.716521119141</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.066813077319</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.126779330178</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.126779330178</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="N38" t="n">
-        <v>2718.103355948862</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="O38" t="n">
-        <v>3698.283022519169</v>
+        <v>3569.079287993931</v>
       </c>
       <c r="P38" t="n">
-        <v>4526.592897352564</v>
+        <v>4397.389162827328</v>
       </c>
       <c r="Q38" t="n">
-        <v>5073.09168331116</v>
+        <v>4943.887948785922</v>
       </c>
       <c r="R38" t="n">
-        <v>5073.09168331116</v>
+        <v>5113.042013538979</v>
       </c>
       <c r="S38" t="n">
-        <v>4992.206561941454</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T38" t="n">
-        <v>4774.906087260951</v>
+        <v>4809.322912595854</v>
       </c>
       <c r="U38" t="n">
-        <v>4518.450537024425</v>
+        <v>4550.100609912871</v>
       </c>
       <c r="V38" t="n">
-        <v>4158.600339404709</v>
+        <v>4187.483659846697</v>
       </c>
       <c r="W38" t="n">
-        <v>3756.5116372622</v>
+        <v>3782.628205257731</v>
       </c>
       <c r="X38" t="n">
-        <v>3340.135926287967</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y38" t="n">
-        <v>2934.616555034078</v>
+        <v>2955.199618136695</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>607.633578657516</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.1771174941583</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D39" t="n">
-        <v>406.0868286407115</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E39" t="n">
-        <v>311.9664139676652</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F39" t="n">
-        <v>228.5825755838268</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G39" t="n">
-        <v>143.1974858500107</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>101.4618336662232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>127.5255068266808</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>452.0838317928931</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1647.528817050692</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1764.701595145032</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>1701.246157593415</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.067513924017</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1394.730966923985</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>1195.613448985984</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>1010.290694719178</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>855.4232589580583</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>728.9374797372791</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>861.1927827620193</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C40" t="n">
-        <v>691.3978236917018</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D40" t="n">
-        <v>528.2865833396819</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E40" t="n">
-        <v>361.2953320368767</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>187.3550304450904</v>
+        <v>267.8521152449519</v>
       </c>
       <c r="G40" t="n">
-        <v>187.3550304450904</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>187.3550304450904</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>101.4618336662232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>190.7532129036861</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K40" t="n">
-        <v>468.2233615475945</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>889.1449373883287</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1351.340498642015</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1796.310995872432</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2218.691939170987</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2568.910527214101</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2739.814996151207</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2721.163927303036</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2589.749919420001</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2346.637225444913</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2070.970977144476</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1786.782221461364</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1517.522569494113</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1274.897567273983</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y40" t="n">
-        <v>1050.244649034549</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2214.546764549992</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1779.171044179873</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1346.028011800775</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E41" t="n">
-        <v>915.0200194055278</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F41" t="n">
-        <v>489.919342261193</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G41" t="n">
-        <v>381.8944963276367</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
-        <v>95.53109421731048</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I41" t="n">
-        <v>95.53109421731048</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>530.7857816702284</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1365.136073628406</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2421.566383503226</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2421.566383503226</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2421.566383503226</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="O41" t="n">
-        <v>3401.746050073533</v>
+        <v>3569.079287993931</v>
       </c>
       <c r="P41" t="n">
-        <v>4230.055924906929</v>
+        <v>4397.389162827328</v>
       </c>
       <c r="Q41" t="n">
-        <v>4776.554710865524</v>
+        <v>4943.887948785922</v>
       </c>
       <c r="R41" t="n">
-        <v>4776.554710865524</v>
+        <v>5113.042013538979</v>
       </c>
       <c r="S41" t="n">
-        <v>4695.669589495818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4478.369114815315</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4221.913564578789</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>3862.063366959073</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3459.974664816564</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3043.598953842332</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2638.079582588442</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>601.7028392086032</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>495.2463780452455</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D42" t="n">
-        <v>400.1560891917988</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E42" t="n">
-        <v>306.0356745187525</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F42" t="n">
-        <v>222.6518361349141</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G42" t="n">
-        <v>137.266746401098</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>95.53109421731048</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>121.5947673777681</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>446.1530923439804</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1641.59807760178</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1758.770855696119</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1695.315418144502</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1565.136774475104</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1388.800227475072</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1189.682709537072</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1004.359955270266</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>849.4925195091456</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>723.0067402883664</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1054.85435318003</v>
+        <v>1036.216302815308</v>
       </c>
       <c r="C43" t="n">
-        <v>885.0593941097127</v>
+        <v>863.6545912985331</v>
       </c>
       <c r="D43" t="n">
-        <v>721.9481537576929</v>
+        <v>697.7765985000558</v>
       </c>
       <c r="E43" t="n">
-        <v>554.9569024548877</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>381.0166008631014</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>318.5597128593456</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H43" t="n">
-        <v>181.4242909961777</v>
+        <v>190.9207894961042</v>
       </c>
       <c r="I43" t="n">
-        <v>95.53109421731048</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>184.8224734547734</v>
+        <v>188.8405254354688</v>
       </c>
       <c r="K43" t="n">
-        <v>462.292622098682</v>
+        <v>463.5989800066044</v>
       </c>
       <c r="L43" t="n">
-        <v>883.214197939416</v>
+        <v>881.8088617745655</v>
       </c>
       <c r="M43" t="n">
-        <v>1345.409759193102</v>
+        <v>1341.292728955478</v>
       </c>
       <c r="N43" t="n">
-        <v>1790.38025642352</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O43" t="n">
-        <v>2212.761199722074</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2562.979787765189</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q43" t="n">
-        <v>2733.884256702293</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2715.233187854123</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2558.758571598577</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2315.645877623489</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U43" t="n">
-        <v>2039.979629323052</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V43" t="n">
-        <v>1755.79087363994</v>
+        <v>1972.872751300483</v>
       </c>
       <c r="W43" t="n">
-        <v>1486.53122167269</v>
+        <v>1700.846346886775</v>
       </c>
       <c r="X43" t="n">
-        <v>1243.90621945256</v>
+        <v>1455.454592220187</v>
       </c>
       <c r="Y43" t="n">
-        <v>1243.90621945256</v>
+        <v>1228.034921534295</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2295.431885919697</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1860.056165549578</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1426.91313317048</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E44" t="n">
-        <v>995.9051407752327</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F44" t="n">
-        <v>570.8044636308987</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G44" t="n">
-        <v>381.8944963276367</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>95.53109421731048</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I44" t="n">
-        <v>95.53109421731048</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>530.7857816702284</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1365.136073628406</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2421.566383503226</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2421.566383503226</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2421.566383503226</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="O44" t="n">
-        <v>3401.746050073533</v>
+        <v>3569.079287993931</v>
       </c>
       <c r="P44" t="n">
-        <v>4230.055924906929</v>
+        <v>4397.389162827328</v>
       </c>
       <c r="Q44" t="n">
-        <v>4776.554710865524</v>
+        <v>4943.887948785922</v>
       </c>
       <c r="R44" t="n">
-        <v>4776.554710865524</v>
+        <v>5113.042013538979</v>
       </c>
       <c r="S44" t="n">
-        <v>4776.554710865524</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4559.25423618502</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4302.798685948494</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>3942.948488328777</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3540.859786186269</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>3124.484075212037</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2718.964703958148</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>601.7028392086032</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>495.2463780452455</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D45" t="n">
-        <v>400.1560891917988</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E45" t="n">
-        <v>306.0356745187525</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F45" t="n">
-        <v>222.6518361349141</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G45" t="n">
-        <v>137.266746401098</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>95.53109421731048</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>121.5947673777681</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>446.1530923439804</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1641.59807760178</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1758.770855696119</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1695.315418144502</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1565.136774475104</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1388.800227475072</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1189.682709537072</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1004.359955270266</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>849.4925195091456</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>723.0067402883664</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1124.518752089204</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C46" t="n">
-        <v>954.7237930188862</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D46" t="n">
-        <v>791.6125526668663</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E46" t="n">
-        <v>624.6213013640613</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F46" t="n">
-        <v>450.6809997722748</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G46" t="n">
-        <v>318.5597128593456</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>181.4242909961777</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>95.53109421731048</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>184.8224734547733</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K46" t="n">
-        <v>462.2926220986819</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>883.2141979394158</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1345.409759193102</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1790.38025642352</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2212.761199722074</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2562.979787765189</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2733.884256702294</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2733.884256702294</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2577.409640446748</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2334.296946471661</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2334.296946471661</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>2050.108190788549</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1780.848538821298</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1538.223536601168</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y46" t="n">
-        <v>1313.570618361733</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>424.2958575201043</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,22 +8058,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>52.91495433479507</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684648</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684648</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741776</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,25 +8374,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>110.403831323843</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,28 +8453,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8611,19 +8611,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>224.947097744021</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8693,10 +8693,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>935.7854229747763</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8924,19 +8924,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>83.24019622442721</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9398,19 +9398,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>288.735183296506</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10592,10 +10592,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>274.7238147663475</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="N38" t="n">
-        <v>274.7238147663475</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11063,13 +11063,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1067.101323105879</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11300,13 +11300,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1067.101323105879</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>287.7001706667563</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>287.7001706667559</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627255</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.592177662725</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>3.146865729424576</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>216.2362286424011</v>
       </c>
     </row>
     <row r="29">
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>100.9720147801449</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>135.7640676445363</v>
+        <v>52.94985625022258</v>
       </c>
       <c r="I37" t="n">
-        <v>85.03426481107849</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>161.1962773024377</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>135.7640676445363</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>24.81000228878545</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25640,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>287.7001706667553</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25792,13 +25792,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>143.6516710866793</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>99.36395817871944</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4063890570399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>207.6239005107477</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.07627015600843</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>30.39620325863785</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>18.46455815968891</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>272.9095858174328</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>440042.7592964713</v>
+        <v>448497.6409119882</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>440042.7592964713</v>
+        <v>450019.9609426052</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>441985.3053669026</v>
+        <v>462070.1204252882</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>441985.3053669026</v>
+        <v>462070.1204252882</v>
       </c>
     </row>
     <row r="7">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>462070.1204252882</v>
+        <v>462070.1204252881</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>462969.944714674</v>
+        <v>462070.1204252882</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>462969.944714674</v>
+        <v>462070.1204252882</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>442885.1296562883</v>
+        <v>462070.1204252882</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>442885.1296562883</v>
+        <v>462070.1204252882</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>522743.6368931482</v>
+      </c>
+      <c r="C2" t="n">
         <v>522743.6368931484</v>
       </c>
-      <c r="C2" t="n">
-        <v>522743.6368931482</v>
-      </c>
       <c r="D2" t="n">
-        <v>522743.6368931483</v>
+        <v>522743.6368931484</v>
       </c>
       <c r="E2" t="n">
-        <v>491357.7342884715</v>
+        <v>513686.1445339184</v>
       </c>
       <c r="F2" t="n">
-        <v>491357.7342884715</v>
+        <v>513686.1445339184</v>
       </c>
       <c r="G2" t="n">
+        <v>513686.1445339184</v>
+      </c>
+      <c r="H2" t="n">
         <v>513686.1445339185</v>
       </c>
-      <c r="H2" t="n">
-        <v>513686.1445339184</v>
-      </c>
       <c r="I2" t="n">
-        <v>513686.1445339184</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="J2" t="n">
-        <v>513686.1445339186</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="K2" t="n">
         <v>513686.1445339185</v>
       </c>
       <c r="L2" t="n">
+        <v>513686.1445339185</v>
+      </c>
+      <c r="M2" t="n">
         <v>513686.1445339184</v>
       </c>
-      <c r="M2" t="n">
-        <v>515214.2107678317</v>
-      </c>
       <c r="N2" t="n">
-        <v>515214.2107678318</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="O2" t="n">
-        <v>492885.8005223849</v>
+        <v>513686.1445339184</v>
       </c>
       <c r="P2" t="n">
-        <v>492885.8005223848</v>
+        <v>513686.1445339183</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26366,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501656</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.5955499824</v>
       </c>
       <c r="E3" t="n">
-        <v>232840.2019932544</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>20319.08402319052</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877282</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622012</v>
       </c>
       <c r="M3" t="n">
-        <v>194039.1781017873</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,16 +26418,16 @@
         <v>193696.6796511644</v>
       </c>
       <c r="C4" t="n">
-        <v>193696.6796511644</v>
+        <v>154981.0317940152</v>
       </c>
       <c r="D4" t="n">
-        <v>193696.6796511644</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="E4" t="n">
-        <v>52190.18470672001</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="F4" t="n">
-        <v>52190.18470672001</v>
+        <v>54561.82510962272</v>
       </c>
       <c r="G4" t="n">
         <v>54561.82510962276</v>
@@ -26445,19 +26445,19 @@
         <v>54561.82510962276</v>
       </c>
       <c r="L4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="M4" t="n">
-        <v>56904.58296562741</v>
+        <v>54561.82510962284</v>
       </c>
       <c r="N4" t="n">
-        <v>56904.58296562741</v>
+        <v>54561.82510962279</v>
       </c>
       <c r="O4" t="n">
-        <v>54532.94256272466</v>
+        <v>54561.82510962286</v>
       </c>
       <c r="P4" t="n">
-        <v>54532.94256272466</v>
+        <v>54561.82510962287</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26470,16 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800265</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73210.87662461883</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>73210.87662461883</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
         <v>77718.2386057925</v>
@@ -26488,7 +26488,7 @@
         <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26497,19 +26497,19 @@
         <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77341.26571663666</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="N5" t="n">
-        <v>77341.26571663666</v>
+        <v>77718.23860579247</v>
       </c>
       <c r="O5" t="n">
-        <v>72833.90373546298</v>
+        <v>77718.23860579247</v>
       </c>
       <c r="P5" t="n">
-        <v>72833.90373546298</v>
+        <v>77718.23860579247</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127430.8684450517</v>
+        <v>127430.8684450515</v>
       </c>
       <c r="C6" t="n">
-        <v>269622.1691047614</v>
+        <v>229218.623396114</v>
       </c>
       <c r="D6" t="n">
-        <v>269622.1691047615</v>
+        <v>288993.3225356191</v>
       </c>
       <c r="E6" t="n">
-        <v>133116.4709638781</v>
+        <v>199027.7472580708</v>
       </c>
       <c r="F6" t="n">
-        <v>365956.6729571326</v>
+        <v>381382.8564791205</v>
       </c>
       <c r="G6" t="n">
-        <v>361086.9967953127</v>
+        <v>381382.8564791205</v>
       </c>
       <c r="H6" t="n">
-        <v>381406.0808185031</v>
+        <v>381382.8564791206</v>
       </c>
       <c r="I6" t="n">
-        <v>381406.0808185032</v>
+        <v>381382.8564791206</v>
       </c>
       <c r="J6" t="n">
-        <v>270391.6154735131</v>
+        <v>270368.3911341304</v>
       </c>
       <c r="K6" t="n">
-        <v>381406.0808185033</v>
+        <v>328337.0018403477</v>
       </c>
       <c r="L6" t="n">
-        <v>381406.0808185032</v>
+        <v>371990.5547524986</v>
       </c>
       <c r="M6" t="n">
-        <v>186929.1839837804</v>
+        <v>229182.6855411328</v>
       </c>
       <c r="N6" t="n">
-        <v>380968.3620855678</v>
+        <v>381382.8564791206</v>
       </c>
       <c r="O6" t="n">
-        <v>365518.9542241973</v>
+        <v>381382.8564791204</v>
       </c>
       <c r="P6" t="n">
-        <v>365518.9542241971</v>
+        <v>381382.8564791203</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26790,16 +26790,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684648</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1204.126260273336</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1204.126260273336</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26820,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1268.27292082779</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1268.27292082779</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1194.138677716381</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1194.138677716381</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27012,19 +27012,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483604</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.1103742393922</v>
       </c>
       <c r="E4" t="n">
-        <v>779.8304027532317</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>74.13424311140894</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483604</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.1103742393922</v>
       </c>
       <c r="M4" t="n">
-        <v>769.8428201962765</v>
+        <v>610.7452967768877</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27258,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483604</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.1103742393922</v>
       </c>
       <c r="M4" t="n">
-        <v>779.8304027532317</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>74.13424311140894</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27433,7 +27433,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.5968326301921</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27442,10 +27442,10 @@
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>353.1355022404554</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>100.59503778795</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>72.78996144619879</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>9.465190568306582</v>
-      </c>
       <c r="D5" t="n">
-        <v>104.2627093945167</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27673,13 +27673,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>72.85097093681827</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -27789,10 +27789,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>24.15449395817984</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>51.58631836451698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>72.71868052833509</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>400</v>
       </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>295.2710917407707</v>
       </c>
     </row>
     <row r="9">
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>100.8476018541753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
     </row>
     <row r="15">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>2.739084921992927</v>
+        <v>1.039137308914149e-12</v>
       </c>
       <c r="D35" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="T38" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="V38" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="W38" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="X38" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="Y38" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>2.739084921992927</v>
+        <v>1.733724275254644e-12</v>
       </c>
       <c r="T41" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="V41" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="Y41" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.739084921992927</v>
+        <v>-6.388627884552392e-13</v>
       </c>
       <c r="K43" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="F44" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="G44" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="H44" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>2.739084921992927</v>
+        <v>1.733724275254644e-12</v>
       </c>
       <c r="T44" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="U44" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="V44" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="W44" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="X44" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="Y44" t="n">
-        <v>2.739084921992927</v>
+        <v>6.936877707947525e-14</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.739084921992927</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>424.2958575201043</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,22 +34778,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>52.91495433479507</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684648</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684648</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741776</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,10 +35033,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>110.403831323843</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,28 +35173,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>224.947097744021</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35410,13 +35410,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>935.7854229747763</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,13 +35574,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>83.24019622442721</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,13 +35811,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -36042,19 +36042,19 @@
         <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960967</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>288.735183296506</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36279,13 +36279,13 @@
         <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960965</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36601,10 +36601,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36838,10 +36838,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -37306,16 +37306,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>274.7238147663475</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37327,7 +37327,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>90.19331236107354</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>280.2728774180895</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>425.1733089300344</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>466.8642032865516</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>449.4651487175936</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>426.6474174732873</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>353.7561495384998</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>172.6307767041467</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,16 +37543,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="N38" t="n">
-        <v>274.7238147663475</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37564,7 +37564,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>90.19331236107359</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>280.2728774180894</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>425.1733089300345</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>466.8642032865515</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>449.4651487175936</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>426.6474174732873</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>353.7561495384998</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>172.6307767041467</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>1067.101323105879</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>90.19331236107365</v>
+        <v>87.45422743908001</v>
       </c>
       <c r="K43" t="n">
-        <v>280.2728774180895</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>425.1733089300344</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>466.8642032865514</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>449.4651487175936</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>426.6474174732871</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
-        <v>353.7561495384998</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>172.6307767041467</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>1067.101323105879</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>90.19331236107359</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>280.2728774180895</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>425.1733089300344</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>466.8642032865517</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>449.4651487175936</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>426.6474174732873</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>353.7561495384998</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>172.6307767041467</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
